--- a/bitnamiRedmine/定義書_イメージ設定.xlsx
+++ b/bitnamiRedmine/定義書_イメージ設定.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Volume定義" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="コンテナ内のVolumeへのリンク" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="実行ファイル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Redmineコンテナディレクトリ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -235,6 +236,81 @@
   </si>
   <si>
     <t xml:space="preserve">各DBMS用の環境変数の設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルートフォルダ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitnami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lib64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redmine-inputs.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redmine-progressive-projects-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var</t>
   </si>
 </sst>
 </file>
@@ -492,10 +568,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.36"/>
@@ -587,7 +663,7 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.42"/>
@@ -695,11 +771,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
@@ -772,4 +848,173 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bitnamiRedmine/定義書_イメージ設定.xlsx
+++ b/bitnamiRedmine/定義書_イメージ設定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Volume定義" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="121">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -238,24 +238,57 @@
     <t xml:space="preserve">各DBMS用の環境変数の設定</t>
   </si>
   <si>
-    <t xml:space="preserve">ルートフォルダ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一階層</t>
+    <t xml:space="preserve">ルート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第1階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第2階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第3階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">bin</t>
   </si>
   <si>
+    <t xml:space="preserve">省略</t>
+  </si>
+  <si>
     <t xml:space="preserve">bitnami</t>
   </si>
   <si>
+    <t xml:space="preserve">redmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
     <t xml:space="preserve">boot</t>
   </si>
   <si>
     <t xml:space="preserve">build</t>
   </si>
   <si>
+    <t xml:space="preserve">bitnami-user.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">install-nami.sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">dev</t>
   </si>
   <si>
@@ -271,6 +304,9 @@
     <t xml:space="preserve">lib64</t>
   </si>
   <si>
+    <t xml:space="preserve">Id-linux-x86-64.so.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">media</t>
   </si>
   <si>
@@ -280,6 +316,30 @@
     <t xml:space="preserve">opt</t>
   </si>
   <si>
+    <t xml:space="preserve">base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgresql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby</t>
+  </si>
+  <si>
     <t xml:space="preserve">proc</t>
   </si>
   <si>
@@ -289,12 +349,54 @@
     <t xml:space="preserve">redmine-progressive-projects-list</t>
   </si>
   <si>
+    <t xml:space="preserve">LICENSE.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stylesheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init.rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progressive_projects_list.rb</t>
+  </si>
+  <si>
     <t xml:space="preserve">root</t>
   </si>
   <si>
     <t xml:space="preserve">run</t>
   </si>
   <si>
+    <t xml:space="preserve">lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utmp</t>
+  </si>
+  <si>
     <t xml:space="preserve">sbin</t>
   </si>
   <si>
@@ -304,13 +406,82 @@
     <t xml:space="preserve">sys</t>
   </si>
   <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module</t>
+  </si>
+  <si>
     <t xml:space="preserve">tmp</t>
   </si>
   <si>
     <t xml:space="preserve">usr</t>
   </si>
   <si>
+    <t xml:space="preserve">games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src</t>
+  </si>
+  <si>
     <t xml:space="preserve">var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debconf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idconfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternatives.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spool</t>
   </si>
 </sst>
 </file>
@@ -660,14 +831,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.3"/>
   </cols>
   <sheetData>
@@ -771,8 +942,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,157 +1026,1110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>41</v>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>42</v>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>43</v>
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="D57" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>63</v>
+      <c r="D60" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/bitnamiRedmine/定義書_イメージ設定.xlsx
+++ b/bitnamiRedmine/定義書_イメージ設定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Volume定義" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="229">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -250,6 +250,15 @@
     <t xml:space="preserve">第3階層</t>
   </si>
   <si>
+    <t xml:space="preserve">第4階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第5階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第6階層</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
@@ -268,15 +277,33 @@
     <t xml:space="preserve">conf</t>
   </si>
   <si>
+    <t xml:space="preserve">configuration.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database.yml</t>
+  </si>
+  <si>
     <t xml:space="preserve">files</t>
   </si>
   <si>
+    <t xml:space="preserve">yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">plugins</t>
   </si>
   <si>
+    <t xml:space="preserve">プラグイン名</t>
+  </si>
+  <si>
     <t xml:space="preserve">public</t>
   </si>
   <si>
+    <t xml:space="preserve">plugin_assets</t>
+  </si>
+  <si>
     <t xml:space="preserve">boot</t>
   </si>
   <si>
@@ -319,27 +346,189 @@
     <t xml:space="preserve">base</t>
   </si>
   <si>
+    <t xml:space="preserve">functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helpers</t>
+  </si>
+  <si>
     <t xml:space="preserve">common</t>
   </si>
   <si>
+    <t xml:space="preserve">gosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gosu-1.12.0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpl-source-links.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tini-0.19-0.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">git</t>
   </si>
   <si>
-    <t xml:space="preserve">licenses</t>
+    <t xml:space="preserve">libexec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git-core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git-2.30.1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setenv.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitweb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licenses.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nami-2.0.1-0.txt</t>
   </si>
   <si>
     <t xml:space="preserve">mysql</t>
   </si>
   <si>
+    <t xml:space="preserve">mysqldump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql-client-10.3.28.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin</t>
+  </si>
+  <si>
     <t xml:space="preserve">nami</t>
   </si>
   <si>
+    <t xml:space="preserve">COPYING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harpoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nami-app.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nami-parser.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package-lock.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nami.json.tpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exports.tpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.js.tpl</t>
+  </si>
+  <si>
     <t xml:space="preserve">postgresql</t>
   </si>
   <si>
+    <t xml:space="preserve">pg_dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_dumpall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgresql-client-11.11.0.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">ruby</t>
   </si>
   <si>
+    <t xml:space="preserve">bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bundler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_rubygems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby-2.6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby-2.6.6.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">proc</t>
   </si>
   <si>
@@ -361,18 +550,45 @@
     <t xml:space="preserve">views</t>
   </si>
   <si>
+    <t xml:space="preserve">application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_progressive_recent_projects.html.erb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_progressive_sidebar.html.erb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_progressive_overview.html.erb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_progressive_projects_list.html.erb</t>
+  </si>
+  <si>
     <t xml:space="preserve">assets</t>
   </si>
   <si>
     <t xml:space="preserve">stylesheets</t>
   </si>
   <si>
+    <t xml:space="preserve">Progressive-projects-list.css</t>
+  </si>
+  <si>
     <t xml:space="preserve">config</t>
   </si>
   <si>
     <t xml:space="preserve">locales</t>
   </si>
   <si>
+    <t xml:space="preserve">言語.yml</t>
+  </si>
+  <si>
     <t xml:space="preserve">init.rb</t>
   </si>
   <si>
@@ -442,12 +658,6 @@
     <t xml:space="preserve">games</t>
   </si>
   <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share</t>
-  </si>
-  <si>
     <t xml:space="preserve">src</t>
   </si>
   <si>
@@ -466,13 +676,127 @@
     <t xml:space="preserve">debconf</t>
   </si>
   <si>
+    <t xml:space="preserve">config.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config.dat-old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passwords.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templates.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templates.dat-old</t>
+  </si>
+  <si>
     <t xml:space="preserve">Idconfig</t>
   </si>
   <si>
+    <t xml:space="preserve">aux-cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended_states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghostscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fontmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cidfmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insserv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session-noninteractive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lectured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deb-systemd-helper-enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:etc:papersize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashfile.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update-rc.d</t>
+  </si>
+  <si>
     <t xml:space="preserve">log</t>
   </si>
   <si>
     <t xml:space="preserve">alternatives.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eipp.log.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term.log</t>
   </si>
   <si>
     <t xml:space="preserve">dpkg.log</t>
@@ -552,7 +876,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +887,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -607,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +984,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -942,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,10 +1360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,6 +1372,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,6 +1390,15 @@
       <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -1061,11 +1407,20 @@
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,13 +1428,22 @@
         <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,13 +1451,22 @@
         <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,13 +1474,22 @@
         <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,13 +1497,22 @@
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,13 +1520,22 @@
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,13 +1543,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,13 +1566,22 @@
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,13 +1589,22 @@
         <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,13 +1612,22 @@
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,13 +1635,22 @@
         <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,13 +1658,22 @@
         <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,13 +1681,22 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,13 +1704,22 @@
         <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,13 +1727,22 @@
         <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,13 +1750,22 @@
         <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,13 +1773,22 @@
         <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,13 +1796,22 @@
         <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,13 +1819,22 @@
         <v>31</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,13 +1842,22 @@
         <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,13 +1865,22 @@
         <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,13 +1888,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,13 +1911,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,13 +1934,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,13 +1957,22 @@
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,13 +1980,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,13 +2003,22 @@
         <v>31</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,10 +2029,19 @@
         <v>73</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,13 +2049,22 @@
         <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,13 +2072,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,13 +2095,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,13 +2118,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,13 +2141,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,13 +2164,22 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,13 +2187,22 @@
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,13 +2210,22 @@
         <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,13 +2233,22 @@
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,13 +2256,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,13 +2279,22 @@
         <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,13 +2302,22 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,13 +2325,22 @@
         <v>31</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,13 +2348,22 @@
         <v>31</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,13 +2371,22 @@
         <v>31</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,13 +2394,22 @@
         <v>31</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,13 +2417,22 @@
         <v>31</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,13 +2440,22 @@
         <v>31</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,13 +2463,22 @@
         <v>31</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,13 +2486,22 @@
         <v>31</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,13 +2509,22 @@
         <v>31</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,13 +2532,22 @@
         <v>31</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>45</v>
+      <c r="E51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,13 +2555,22 @@
         <v>31</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,13 +2578,22 @@
         <v>31</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,13 +2601,22 @@
         <v>31</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,13 +2624,22 @@
         <v>31</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,13 +2647,22 @@
         <v>31</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,13 +2670,22 @@
         <v>31</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,13 +2693,22 @@
         <v>31</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,13 +2716,22 @@
         <v>31</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,13 +2739,22 @@
         <v>31</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,13 +2762,22 @@
         <v>31</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,13 +2785,22 @@
         <v>31</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,13 +2808,22 @@
         <v>31</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,13 +2831,22 @@
         <v>31</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,13 +2854,22 @@
         <v>31</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,13 +2877,22 @@
         <v>31</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,13 +2900,22 @@
         <v>31</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,13 +2923,22 @@
         <v>31</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,13 +2946,22 @@
         <v>31</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,13 +2969,22 @@
         <v>31</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,13 +2992,22 @@
         <v>31</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,13 +3015,22 @@
         <v>31</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,13 +3038,22 @@
         <v>31</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,13 +3061,22 @@
         <v>31</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,13 +3084,22 @@
         <v>31</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,13 +3107,22 @@
         <v>31</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,13 +3130,22 @@
         <v>31</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,13 +3153,1908 @@
         <v>31</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
